--- a/Relatorio_Lab2/Testes de processadores.xlsx
+++ b/Relatorio_Lab2/Testes de processadores.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Processador 1</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Processador 3, sem BTB com forwarding</t>
   </si>
   <si>
-    <t>Processador 4, BTB sem fording de flags e com forw</t>
-  </si>
-  <si>
     <t>Freq. Mhz</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Nº erros</t>
   </si>
   <si>
-    <t>Tempo excução</t>
-  </si>
-  <si>
     <t>Teste 1</t>
   </si>
   <si>
@@ -71,35 +65,21 @@
     <t>Teste 3</t>
   </si>
   <si>
-    <t>5,776 us</t>
-  </si>
-  <si>
-    <t>0,3112 us</t>
-  </si>
-  <si>
-    <t>12,873 us</t>
-  </si>
-  <si>
-    <t>16,619 us</t>
-  </si>
-  <si>
-    <t>0,6224 us</t>
-  </si>
-  <si>
-    <t>8,637 us</t>
-  </si>
-  <si>
-    <t>14,768 us</t>
-  </si>
-  <si>
-    <t>6,131 us</t>
+    <t>Processador 4, Sem BTB /sem forwarding dados</t>
+  </si>
+  <si>
+    <t>Tempo excução us</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +89,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -157,21 +145,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -181,12 +157,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +459,7 @@
   <dimension ref="D4:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,309 +469,328 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="M4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+      <c r="V4" s="6"/>
+      <c r="W4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="M4" s="9" t="s">
+      <c r="Z4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="6"/>
+    </row>
+    <row r="5" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="2">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <f>(1/(F5))*G5</f>
+        <v>0.26971013258382309</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="M5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="2">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2358</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>108</v>
+      </c>
+      <c r="R5" s="10">
+        <f>(1/(O5))*P5</f>
+        <v>11.157482326888681</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="W5" s="2">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1058</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>122</v>
+      </c>
+      <c r="Z5" s="10">
+        <f>(1/(W5))*X5</f>
+        <v>5.0061986012927164</v>
+      </c>
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="2">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>114</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" ref="I6:I8" si="0">(1/(F6))*G6</f>
+        <v>0.53942026516764618</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="M6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="2">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="P6" s="2">
+        <v>3044</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>108</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" ref="R6:R8" si="1">(1/(O6))*P6</f>
+        <v>14.403467431318553</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="2">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1582</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>122</v>
+      </c>
+      <c r="Z6" s="10">
+        <f t="shared" ref="Z6:Z8" si="2">(1/(W6))*X6</f>
+        <v>7.4856391183790905</v>
+      </c>
+      <c r="AA6" s="10"/>
+    </row>
+    <row r="7" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="2">
+        <v>285.608</v>
+      </c>
+      <c r="G7" s="2">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19957424161788187</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="M7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="5">
+        <v>285.608</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2705</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>463</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="1"/>
+        <v>9.4710232206380773</v>
+      </c>
+      <c r="S7" s="10"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="6"/>
+      <c r="W7" s="5">
+        <v>285.608</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1123</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>187</v>
+      </c>
+      <c r="Z7" s="10">
+        <f t="shared" si="2"/>
+        <v>3.931962690120725</v>
+      </c>
+      <c r="AA7" s="10"/>
+    </row>
+    <row r="8" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="2">
+        <v>285.608</v>
+      </c>
+      <c r="G8" s="2">
+        <v>114</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39914848323576374</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="M8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5">
+        <v>285.608</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3323</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>463</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" si="1"/>
+        <v>11.634828156074061</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" s="6"/>
+      <c r="W8" s="5">
+        <v>285.608</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1647</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>187</v>
+      </c>
+      <c r="Z8" s="10">
+        <f t="shared" si="2"/>
+        <v>5.7666451920114286</v>
+      </c>
+      <c r="AA8" s="10"/>
+    </row>
+    <row r="12" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="H12" s="11"/>
+    </row>
+    <row r="14" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA4" s="9"/>
-    </row>
-    <row r="5" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6">
-        <v>183.16900000000001</v>
-      </c>
-      <c r="G5" s="6">
-        <v>57</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="M5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="6">
-        <v>183.16900000000001</v>
-      </c>
-      <c r="P5" s="6">
-        <v>2358</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>108</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="4">
-        <v>183.16900000000001</v>
-      </c>
-      <c r="X5" s="6">
-        <v>1058</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>122</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="6" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="6">
-        <v>183.16900000000001</v>
-      </c>
-      <c r="G6" s="6">
-        <v>114</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="M6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="4">
-        <v>183.16900000000001</v>
-      </c>
-      <c r="P6" s="6">
-        <v>3044</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>108</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="4">
-        <v>183.16900000000001</v>
-      </c>
-      <c r="X6" s="6">
-        <v>1582</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>122</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6">
-        <v>183.16900000000001</v>
-      </c>
-      <c r="G7" s="6">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="M7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="4">
-        <v>183.16900000000001</v>
-      </c>
-      <c r="P7" s="6">
-        <v>2705</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>463</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="6">
-        <v>183.16900000000001</v>
-      </c>
-      <c r="X7" s="6">
-        <v>1123</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>187</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA7" s="5"/>
-    </row>
-    <row r="8" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="M8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-    </row>
-    <row r="14" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="R6:S6"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="D17:H17"/>
     <mergeCell ref="I4:J4"/>
@@ -797,6 +805,26 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="R8:S8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Relatorio_Lab2/Testes de processadores.xlsx
+++ b/Relatorio_Lab2/Testes de processadores.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nmac\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\margarida\Downloads\git\AAC-e-ERap\Relatorio_Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>Processador 1</t>
   </si>
@@ -38,15 +38,6 @@
     <t>Processador 2</t>
   </si>
   <si>
-    <t>Processador 1, com forwarding e BTB</t>
-  </si>
-  <si>
-    <t>Processador 2, sem forwarding e com BTB e NOPS</t>
-  </si>
-  <si>
-    <t>Processador 3, sem BTB com forwarding</t>
-  </si>
-  <si>
     <t>Freq. Mhz</t>
   </si>
   <si>
@@ -56,19 +47,150 @@
     <t>Nº erros</t>
   </si>
   <si>
-    <t>Teste 1</t>
-  </si>
-  <si>
     <t>Teste 2</t>
   </si>
   <si>
     <t>Teste 3</t>
   </si>
   <si>
-    <t>Processador 4, Sem BTB /sem forwarding dados</t>
-  </si>
-  <si>
     <t>Tempo excução us</t>
+  </si>
+  <si>
+    <t>Frequência [MHz]</t>
+  </si>
+  <si>
+    <t>Número de Predicções Falhadas</t>
+  </si>
+  <si>
+    <t>Número de Ciclos de Execução</t>
+  </si>
+  <si>
+    <t>Tempo de Excução [μs]</t>
+  </si>
+  <si>
+    <t>Processador #1</t>
+  </si>
+  <si>
+    <t>Processador #2</t>
+  </si>
+  <si>
+    <t>Processador #3</t>
+  </si>
+  <si>
+    <t>Processador #4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">com </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>forwarding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>de dados e BTB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sem </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>forwarding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>de dados, com NOPS e com BTB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">com </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>forwarding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">de dados e sem BTB </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sem </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>forwarding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>de dados e sem BTB</t>
+    </r>
+  </si>
+  <si>
+    <t>Teste #1</t>
+  </si>
+  <si>
+    <t>Teste #2</t>
+  </si>
+  <si>
+    <t>Teste #3</t>
   </si>
 </sst>
 </file>
@@ -79,7 +201,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,15 +218,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +254,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -141,13 +284,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -163,19 +428,84 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,7 +524,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -456,375 +786,585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:AA17"/>
+  <dimension ref="B2:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" customWidth="1"/>
+    <col min="9" max="9" width="19.1328125" customWidth="1"/>
+    <col min="11" max="11" width="10.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D4" s="8" t="s">
+    <row r="2" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:28" ht="28.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="1" t="s">
+      <c r="H3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="N3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="W3" s="5"/>
+      <c r="X3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="M4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA4" s="6"/>
-    </row>
-    <row r="5" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D5" s="8" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="19">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="H4" s="19">
+        <v>57</v>
+      </c>
+      <c r="I4" s="19">
         <v>0</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="2">
+      <c r="J4" s="20">
+        <f>(1/(G4))*H4</f>
+        <v>0.26971013258382309</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="N4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="1">
         <v>211.33799999999999</v>
       </c>
-      <c r="G5" s="2">
+      <c r="Q4" s="1">
+        <v>2358</v>
+      </c>
+      <c r="R4" s="1">
+        <v>108</v>
+      </c>
+      <c r="S4" s="6">
+        <f>(1/(P4))*Q4</f>
+        <v>11.157482326888681</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5"/>
+      <c r="X4" s="1">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1058</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>122</v>
+      </c>
+      <c r="AA4" s="6">
+        <f>(1/(X4))*Y4</f>
+        <v>5.0061986012927164</v>
+      </c>
+      <c r="AB4" s="6"/>
+    </row>
+    <row r="5" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="H5" s="19">
+        <v>114</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20">
+        <f t="shared" ref="J5:J7" si="0">(1/(G5))*H5</f>
+        <v>0.53942026516764618</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="N5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="1">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3044</v>
+      </c>
+      <c r="R5" s="1">
+        <v>108</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" ref="S5:S7" si="1">(1/(P5))*Q5</f>
+        <v>14.403467431318553</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="5"/>
+      <c r="X5" s="1">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1582</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>122</v>
+      </c>
+      <c r="AA5" s="6">
+        <f t="shared" ref="AA5:AA7" si="2">(1/(X5))*Y5</f>
+        <v>7.4856391183790905</v>
+      </c>
+      <c r="AB5" s="6"/>
+    </row>
+    <row r="6" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19">
+        <v>285.608</v>
+      </c>
+      <c r="H6" s="19">
         <v>57</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I6" s="19">
         <v>0</v>
       </c>
-      <c r="I5" s="9">
-        <f>(1/(F5))*G5</f>
-        <v>0.26971013258382309</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="M5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="2">
-        <v>211.33799999999999</v>
-      </c>
-      <c r="P5" s="2">
-        <v>2358</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>108</v>
-      </c>
-      <c r="R5" s="10">
-        <f>(1/(O5))*P5</f>
-        <v>11.157482326888681</v>
-      </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="2">
-        <v>211.33799999999999</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1058</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>122</v>
-      </c>
-      <c r="Z5" s="10">
-        <f>(1/(W5))*X5</f>
-        <v>5.0061986012927164</v>
-      </c>
-      <c r="AA5" s="10"/>
-    </row>
-    <row r="6" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="2">
-        <v>211.33799999999999</v>
-      </c>
-      <c r="G6" s="2">
-        <v>114</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <f t="shared" ref="I6:I8" si="0">(1/(F6))*G6</f>
-        <v>0.53942026516764618</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="M6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="2">
-        <v>211.33799999999999</v>
-      </c>
-      <c r="P6" s="2">
-        <v>3044</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>108</v>
-      </c>
-      <c r="R6" s="10">
-        <f t="shared" ref="R6:R8" si="1">(1/(O6))*P6</f>
-        <v>14.403467431318553</v>
-      </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="2">
-        <v>211.33799999999999</v>
-      </c>
-      <c r="X6" s="2">
-        <v>1582</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>122</v>
-      </c>
-      <c r="Z6" s="10">
-        <f t="shared" ref="Z6:Z8" si="2">(1/(W6))*X6</f>
-        <v>7.4856391183790905</v>
-      </c>
-      <c r="AA6" s="10"/>
-    </row>
-    <row r="7" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="2">
-        <v>285.608</v>
-      </c>
-      <c r="G7" s="2">
-        <v>57</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="J6" s="20">
         <f t="shared" si="0"/>
         <v>0.19957424161788187</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="M7" s="6" t="s">
+      <c r="K6" s="20"/>
+      <c r="N6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="5">
+      <c r="O6" s="5"/>
+      <c r="P6" s="4">
         <v>285.608</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q6" s="1">
         <v>2705</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R6" s="1">
         <v>463</v>
       </c>
-      <c r="R7" s="10">
+      <c r="S6" s="6">
         <f t="shared" si="1"/>
         <v>9.4710232206380773</v>
       </c>
-      <c r="S7" s="10"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="6" t="s">
+      <c r="T6" s="6"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="5">
+      <c r="W6" s="5"/>
+      <c r="X6" s="4">
         <v>285.608</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y6" s="1">
         <v>1123</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z6" s="1">
         <v>187</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="AA6" s="6">
         <f t="shared" si="2"/>
         <v>3.931962690120725</v>
       </c>
-      <c r="AA7" s="10"/>
-    </row>
-    <row r="8" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="2">
+      <c r="AB6" s="6"/>
+    </row>
+    <row r="7" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22">
         <v>285.608</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H7" s="22">
         <v>114</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I7" s="22">
         <v>0</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J7" s="23">
         <f t="shared" si="0"/>
         <v>0.39914848323576374</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="M8" s="6" t="s">
+      <c r="K7" s="23"/>
+      <c r="N7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="5">
+      <c r="O7" s="5"/>
+      <c r="P7" s="4">
         <v>285.608</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q7" s="1">
         <v>3323</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R7" s="1">
         <v>463</v>
       </c>
-      <c r="R8" s="10">
+      <c r="S7" s="6">
         <f t="shared" si="1"/>
         <v>11.634828156074061</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="6" t="s">
+      <c r="T7" s="6"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="5">
+      <c r="W7" s="5"/>
+      <c r="X7" s="4">
         <v>285.608</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y7" s="1">
         <v>1647</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Z7" s="1">
         <v>187</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="AA7" s="6">
         <f t="shared" si="2"/>
         <v>5.7666451920114286</v>
       </c>
-      <c r="AA8" s="10"/>
-    </row>
-    <row r="12" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="H12" s="11"/>
-    </row>
-    <row r="14" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="7" t="s">
+      <c r="AB7" s="6"/>
+    </row>
+    <row r="8" spans="2:28" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="9" spans="2:28" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="19">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="H10" s="19">
+        <v>2358</v>
+      </c>
+      <c r="I10" s="19">
+        <v>108</v>
+      </c>
+      <c r="J10" s="28">
+        <f>(1/(G10))*H10</f>
+        <v>11.157482326888681</v>
+      </c>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="2:28" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="19">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="H11" s="19">
+        <v>3044</v>
+      </c>
+      <c r="I11" s="19">
+        <v>108</v>
+      </c>
+      <c r="J11" s="28">
+        <f t="shared" ref="J11:J13" si="3">(1/(G11))*H11</f>
+        <v>14.403467431318553</v>
+      </c>
+      <c r="K11" s="29"/>
+    </row>
+    <row r="12" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="19">
+        <v>285.608</v>
+      </c>
+      <c r="H12" s="19">
+        <v>2705</v>
+      </c>
+      <c r="I12" s="19">
+        <v>463</v>
+      </c>
+      <c r="J12" s="28">
+        <f t="shared" si="3"/>
+        <v>9.4710232206380773</v>
+      </c>
+      <c r="K12" s="29"/>
+    </row>
+    <row r="13" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="22">
+        <v>285.608</v>
+      </c>
+      <c r="H13" s="22">
+        <v>3323</v>
+      </c>
+      <c r="I13" s="22">
+        <v>463</v>
+      </c>
+      <c r="J13" s="32">
+        <f t="shared" si="3"/>
+        <v>11.634828156074061</v>
+      </c>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E16" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="19">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1058</v>
+      </c>
+      <c r="I16" s="19">
+        <v>122</v>
+      </c>
+      <c r="J16" s="28">
+        <f>(1/(G16))*H16</f>
+        <v>5.0061986012927164</v>
+      </c>
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="5:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E17" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="19">
+        <v>211.33799999999999</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1582</v>
+      </c>
+      <c r="I17" s="19">
+        <v>122</v>
+      </c>
+      <c r="J17" s="28">
+        <f t="shared" ref="J17:J19" si="4">(1/(G17))*H17</f>
+        <v>7.4856391183790905</v>
+      </c>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="5:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="19">
+        <v>285.608</v>
+      </c>
+      <c r="H18" s="19">
+        <v>1123</v>
+      </c>
+      <c r="I18" s="19">
+        <v>187</v>
+      </c>
+      <c r="J18" s="28">
+        <f t="shared" si="4"/>
+        <v>3.931962690120725</v>
+      </c>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="5:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E19" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="22">
+        <v>285.608</v>
+      </c>
+      <c r="H19" s="22">
+        <v>1647</v>
+      </c>
+      <c r="I19" s="22">
+        <v>187</v>
+      </c>
+      <c r="J19" s="32">
+        <f t="shared" si="4"/>
+        <v>5.7666451920114286</v>
+      </c>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="5:11" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="R8:S8"/>
+  <mergeCells count="50">
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Relatorio_Lab2/Testes de processadores.xlsx
+++ b/Relatorio_Lab2/Testes de processadores.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\margarida\Downloads\git\AAC-e-ERap\Relatorio_Lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nmac\Documents\GitHub\AAC-e-ERap\Relatorio_Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>Processador 1</t>
   </si>
@@ -192,6 +192,9 @@
   <si>
     <t>Teste #3</t>
   </si>
+  <si>
+    <t>Processador #5</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +204,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +243,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -411,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,12 +435,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -437,75 +442,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +539,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -786,47 +801,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB20"/>
+  <dimension ref="B2:AB27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D19" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" customWidth="1"/>
-    <col min="6" max="6" width="4.3984375" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" customWidth="1"/>
-    <col min="9" max="9" width="19.1328125" customWidth="1"/>
-    <col min="11" max="11" width="10.9296875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:28" ht="28.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E3" s="13" t="s">
+    <row r="2" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:28" ht="28.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="N3" s="5" t="s">
+      <c r="K3" s="31"/>
+      <c r="N3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="2" t="s">
         <v>4</v>
       </c>
@@ -836,15 +851,15 @@
       <c r="R3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="5"/>
+      <c r="T3" s="29"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="5"/>
+      <c r="W3" s="29"/>
       <c r="X3" s="2" t="s">
         <v>4</v>
       </c>
@@ -854,34 +869,34 @@
       <c r="Z3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="5"/>
-    </row>
-    <row r="4" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E4" s="18" t="s">
+      <c r="AB3" s="29"/>
+    </row>
+    <row r="4" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19">
+      <c r="F4" s="35"/>
+      <c r="G4" s="15">
         <v>211.33799999999999</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="15">
         <v>57</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="15">
         <v>0</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="32">
         <f>(1/(G4))*H4</f>
         <v>0.26971013258382309</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="N4" s="5" t="s">
+      <c r="K4" s="32"/>
+      <c r="N4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="1">
         <v>211.33799999999999</v>
       </c>
@@ -891,16 +906,16 @@
       <c r="R4" s="1">
         <v>108</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="30">
         <f>(1/(P4))*Q4</f>
         <v>11.157482326888681</v>
       </c>
-      <c r="T4" s="6"/>
+      <c r="T4" s="30"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="5"/>
+      <c r="W4" s="29"/>
       <c r="X4" s="1">
         <v>211.33799999999999</v>
       </c>
@@ -910,35 +925,35 @@
       <c r="Z4" s="1">
         <v>122</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="30">
         <f>(1/(X4))*Y4</f>
         <v>5.0061986012927164</v>
       </c>
-      <c r="AB4" s="6"/>
-    </row>
-    <row r="5" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E5" s="18" t="s">
+      <c r="AB4" s="30"/>
+    </row>
+    <row r="5" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19">
+      <c r="F5" s="35"/>
+      <c r="G5" s="15">
         <v>211.33799999999999</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="15">
         <v>114</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="15">
         <v>0</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="32">
         <f t="shared" ref="J5:J7" si="0">(1/(G5))*H5</f>
         <v>0.53942026516764618</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="N5" s="5" t="s">
+      <c r="K5" s="32"/>
+      <c r="N5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="5"/>
+      <c r="O5" s="29"/>
       <c r="P5" s="1">
         <v>211.33799999999999</v>
       </c>
@@ -948,16 +963,16 @@
       <c r="R5" s="1">
         <v>108</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="30">
         <f t="shared" ref="S5:S7" si="1">(1/(P5))*Q5</f>
         <v>14.403467431318553</v>
       </c>
-      <c r="T5" s="6"/>
+      <c r="T5" s="30"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="5"/>
+      <c r="W5" s="29"/>
       <c r="X5" s="1">
         <v>211.33799999999999</v>
       </c>
@@ -967,35 +982,35 @@
       <c r="Z5" s="1">
         <v>122</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="30">
         <f t="shared" ref="AA5:AA7" si="2">(1/(X5))*Y5</f>
         <v>7.4856391183790905</v>
       </c>
-      <c r="AB5" s="6"/>
-    </row>
-    <row r="6" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E6" s="18" t="s">
+      <c r="AB5" s="30"/>
+    </row>
+    <row r="6" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19">
+      <c r="F6" s="35"/>
+      <c r="G6" s="15">
         <v>285.608</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="15">
         <v>57</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="15">
         <v>0</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="32">
         <f t="shared" si="0"/>
         <v>0.19957424161788187</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="N6" s="5" t="s">
+      <c r="K6" s="32"/>
+      <c r="N6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="O6" s="29"/>
       <c r="P6" s="4">
         <v>285.608</v>
       </c>
@@ -1005,16 +1020,16 @@
       <c r="R6" s="1">
         <v>463</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="30">
         <f t="shared" si="1"/>
         <v>9.4710232206380773</v>
       </c>
-      <c r="T6" s="6"/>
+      <c r="T6" s="30"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="5"/>
+      <c r="W6" s="29"/>
       <c r="X6" s="4">
         <v>285.608</v>
       </c>
@@ -1024,35 +1039,35 @@
       <c r="Z6" s="1">
         <v>187</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="30">
         <f t="shared" si="2"/>
         <v>3.931962690120725</v>
       </c>
-      <c r="AB6" s="6"/>
-    </row>
-    <row r="7" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E7" s="21" t="s">
+      <c r="AB6" s="30"/>
+    </row>
+    <row r="7" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22">
+      <c r="F7" s="36"/>
+      <c r="G7" s="16">
         <v>285.608</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="16">
         <v>114</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="16">
         <v>0</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="33">
         <f t="shared" si="0"/>
         <v>0.39914848323576374</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="N7" s="5" t="s">
+      <c r="K7" s="33"/>
+      <c r="N7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="29"/>
       <c r="P7" s="4">
         <v>285.608</v>
       </c>
@@ -1062,16 +1077,16 @@
       <c r="R7" s="1">
         <v>463</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="30">
         <f t="shared" si="1"/>
         <v>11.634828156074061</v>
       </c>
-      <c r="T7" s="6"/>
+      <c r="T7" s="30"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="5" t="s">
+      <c r="V7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="W7" s="5"/>
+      <c r="W7" s="29"/>
       <c r="X7" s="4">
         <v>285.608</v>
       </c>
@@ -1081,258 +1096,354 @@
       <c r="Z7" s="1">
         <v>187</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="30">
         <f t="shared" si="2"/>
         <v>5.7666451920114286</v>
       </c>
-      <c r="AB7" s="6"/>
-    </row>
-    <row r="8" spans="2:28" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="9" spans="2:28" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E9" s="26" t="s">
+      <c r="AB7" s="30"/>
+    </row>
+    <row r="8" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:28" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E10" s="30" t="s">
+      <c r="K9" s="28"/>
+    </row>
+    <row r="10" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="19">
+      <c r="F10" s="18"/>
+      <c r="G10" s="15">
         <v>211.33799999999999</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="15">
         <v>2358</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="15">
         <v>108</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="19">
         <f>(1/(G10))*H10</f>
         <v>11.157482326888681</v>
       </c>
-      <c r="K10" s="29"/>
-    </row>
-    <row r="11" spans="2:28" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="10" t="s">
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="19">
+      <c r="F11" s="18"/>
+      <c r="G11" s="15">
         <v>211.33799999999999</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="15">
         <v>3044</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="15">
         <v>108</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="19">
         <f t="shared" ref="J11:J13" si="3">(1/(G11))*H11</f>
         <v>14.403467431318553</v>
       </c>
-      <c r="K11" s="29"/>
-    </row>
-    <row r="12" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="11" t="s">
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="19">
+      <c r="F12" s="18"/>
+      <c r="G12" s="15">
         <v>285.608</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="15">
         <v>2705</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="15">
         <v>463</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="19">
         <f t="shared" si="3"/>
         <v>9.4710232206380773</v>
       </c>
-      <c r="K12" s="29"/>
-    </row>
-    <row r="13" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="11" t="s">
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="22">
+      <c r="F13" s="22"/>
+      <c r="G13" s="16">
         <v>285.608</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="16">
         <v>3323</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="16">
         <v>463</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="23">
         <f t="shared" si="3"/>
         <v>11.634828156074061</v>
       </c>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="12" t="s">
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E15" s="26" t="s">
+    <row r="15" spans="2:28" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="26"/>
+      <c r="G15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E16" s="30" t="s">
+      <c r="K15" s="28"/>
+    </row>
+    <row r="16" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="19">
+      <c r="F16" s="18"/>
+      <c r="G16" s="15">
         <v>211.33799999999999</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="15">
         <v>1058</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="15">
         <v>122</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="19">
         <f>(1/(G16))*H16</f>
         <v>5.0061986012927164</v>
       </c>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="5:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E17" s="30" t="s">
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="19">
+      <c r="F17" s="18"/>
+      <c r="G17" s="15">
         <v>211.33799999999999</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="15">
         <v>1582</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="15">
         <v>122</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="19">
         <f t="shared" ref="J17:J19" si="4">(1/(G17))*H17</f>
         <v>7.4856391183790905</v>
       </c>
-      <c r="K17" s="29"/>
-    </row>
-    <row r="18" spans="5:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E18" s="30" t="s">
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="19">
+      <c r="F18" s="18"/>
+      <c r="G18" s="15">
         <v>285.608</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="15">
         <v>1123</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="15">
         <v>187</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="19">
         <f t="shared" si="4"/>
         <v>3.931962690120725</v>
       </c>
-      <c r="K18" s="29"/>
-    </row>
-    <row r="19" spans="5:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E19" s="34" t="s">
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="22">
+      <c r="F19" s="22"/>
+      <c r="G19" s="16">
         <v>285.608</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="16">
         <v>1647</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="16">
         <v>187</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="23">
         <f t="shared" si="4"/>
         <v>5.7666451920114286</v>
       </c>
-      <c r="K19" s="33"/>
-    </row>
-    <row r="20" spans="5:11" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="5:11" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="5:11" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="31"/>
+    </row>
+    <row r="22" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="15">
+        <v>183.16900000000001</v>
+      </c>
+      <c r="H22" s="15">
+        <v>57</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="32">
+        <f>(1/(G22))*H22</f>
+        <v>0.3111880285419476</v>
+      </c>
+      <c r="K22" s="32"/>
+    </row>
+    <row r="23" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="15">
+        <v>183.16900000000001</v>
+      </c>
+      <c r="H23" s="15">
+        <v>2358</v>
+      </c>
+      <c r="I23" s="15">
+        <v>108</v>
+      </c>
+      <c r="J23" s="32">
+        <f t="shared" ref="J23:J24" si="5">(1/(G23))*H23</f>
+        <v>12.873357391261621</v>
+      </c>
+      <c r="K23" s="32"/>
+    </row>
+    <row r="24" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="15">
+        <v>183.16900000000001</v>
+      </c>
+      <c r="H24" s="15">
+        <v>1058</v>
+      </c>
+      <c r="I24" s="15">
+        <v>122</v>
+      </c>
+      <c r="J24" s="32">
+        <f t="shared" si="5"/>
+        <v>5.7760865648663255</v>
+      </c>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
+  <mergeCells count="58">
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="V6:W6"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="V7:W7"/>
@@ -1341,30 +1452,24 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Relatorio_Lab2/Testes de processadores.xlsx
+++ b/Relatorio_Lab2/Testes de processadores.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nmac\Documents\GitHub\AAC-e-ERap\Relatorio_Lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\margarida\Downloads\git\AAC-e-ERap\Relatorio_Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -193,7 +193,7 @@
     <t>Teste #3</t>
   </si>
   <si>
-    <t>Processador #5</t>
+    <t>Processador Demonstrado</t>
   </si>
 </sst>
 </file>
@@ -252,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +271,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -422,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,6 +466,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,43 +527,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +548,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -803,28 +812,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D19" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D13" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" customWidth="1"/>
+    <col min="7" max="7" width="15.73046875" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" customWidth="1"/>
+    <col min="9" max="9" width="19.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:28" ht="28.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="34" t="s">
+    <row r="2" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:28" ht="28.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="11" t="s">
         <v>10</v>
       </c>
@@ -834,14 +843,14 @@
       <c r="I3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="N3" s="29" t="s">
+      <c r="K3" s="25"/>
+      <c r="N3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="29"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="2" t="s">
         <v>4</v>
       </c>
@@ -851,15 +860,15 @@
       <c r="R3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="29"/>
+      <c r="T3" s="28"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="29" t="s">
+      <c r="V3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="29"/>
+      <c r="W3" s="28"/>
       <c r="X3" s="2" t="s">
         <v>4</v>
       </c>
@@ -869,16 +878,16 @@
       <c r="Z3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="29" t="s">
+      <c r="AA3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="29"/>
-    </row>
-    <row r="4" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="35" t="s">
+      <c r="AB3" s="28"/>
+    </row>
+    <row r="4" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="35"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="15">
         <v>211.33799999999999</v>
       </c>
@@ -888,15 +897,15 @@
       <c r="I4" s="15">
         <v>0</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="19">
         <f>(1/(G4))*H4</f>
         <v>0.26971013258382309</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="N4" s="29" t="s">
+      <c r="K4" s="19"/>
+      <c r="N4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="29"/>
+      <c r="O4" s="28"/>
       <c r="P4" s="1">
         <v>211.33799999999999</v>
       </c>
@@ -906,16 +915,16 @@
       <c r="R4" s="1">
         <v>108</v>
       </c>
-      <c r="S4" s="30">
+      <c r="S4" s="29">
         <f>(1/(P4))*Q4</f>
         <v>11.157482326888681</v>
       </c>
-      <c r="T4" s="30"/>
+      <c r="T4" s="29"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="29" t="s">
+      <c r="V4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="29"/>
+      <c r="W4" s="28"/>
       <c r="X4" s="1">
         <v>211.33799999999999</v>
       </c>
@@ -925,17 +934,17 @@
       <c r="Z4" s="1">
         <v>122</v>
       </c>
-      <c r="AA4" s="30">
+      <c r="AA4" s="29">
         <f>(1/(X4))*Y4</f>
         <v>5.0061986012927164</v>
       </c>
-      <c r="AB4" s="30"/>
-    </row>
-    <row r="5" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="35" t="s">
+      <c r="AB4" s="29"/>
+    </row>
+    <row r="5" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="15">
         <v>211.33799999999999</v>
       </c>
@@ -945,15 +954,15 @@
       <c r="I5" s="15">
         <v>0</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="19">
         <f t="shared" ref="J5:J7" si="0">(1/(G5))*H5</f>
         <v>0.53942026516764618</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="N5" s="29" t="s">
+      <c r="K5" s="19"/>
+      <c r="N5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="29"/>
+      <c r="O5" s="28"/>
       <c r="P5" s="1">
         <v>211.33799999999999</v>
       </c>
@@ -963,16 +972,16 @@
       <c r="R5" s="1">
         <v>108</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="29">
         <f t="shared" ref="S5:S7" si="1">(1/(P5))*Q5</f>
         <v>14.403467431318553</v>
       </c>
-      <c r="T5" s="30"/>
+      <c r="T5" s="29"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="29" t="s">
+      <c r="V5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="29"/>
+      <c r="W5" s="28"/>
       <c r="X5" s="1">
         <v>211.33799999999999</v>
       </c>
@@ -982,17 +991,17 @@
       <c r="Z5" s="1">
         <v>122</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="29">
         <f t="shared" ref="AA5:AA7" si="2">(1/(X5))*Y5</f>
         <v>7.4856391183790905</v>
       </c>
-      <c r="AB5" s="30"/>
-    </row>
-    <row r="6" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="35" t="s">
+      <c r="AB5" s="29"/>
+    </row>
+    <row r="6" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="35"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="15">
         <v>285.608</v>
       </c>
@@ -1002,15 +1011,15 @@
       <c r="I6" s="15">
         <v>0</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="19">
         <f t="shared" si="0"/>
         <v>0.19957424161788187</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="N6" s="29" t="s">
+      <c r="K6" s="19"/>
+      <c r="N6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="29"/>
+      <c r="O6" s="28"/>
       <c r="P6" s="4">
         <v>285.608</v>
       </c>
@@ -1020,16 +1029,16 @@
       <c r="R6" s="1">
         <v>463</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="29">
         <f t="shared" si="1"/>
         <v>9.4710232206380773</v>
       </c>
-      <c r="T6" s="30"/>
+      <c r="T6" s="29"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="29" t="s">
+      <c r="V6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="29"/>
+      <c r="W6" s="28"/>
       <c r="X6" s="4">
         <v>285.608</v>
       </c>
@@ -1039,17 +1048,17 @@
       <c r="Z6" s="1">
         <v>187</v>
       </c>
-      <c r="AA6" s="30">
+      <c r="AA6" s="29">
         <f t="shared" si="2"/>
         <v>3.931962690120725</v>
       </c>
-      <c r="AB6" s="30"/>
-    </row>
-    <row r="7" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="36" t="s">
+      <c r="AB6" s="29"/>
+    </row>
+    <row r="7" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="16">
         <v>285.608</v>
       </c>
@@ -1059,15 +1068,15 @@
       <c r="I7" s="16">
         <v>0</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="27">
         <f t="shared" si="0"/>
         <v>0.39914848323576374</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="N7" s="29" t="s">
+      <c r="K7" s="27"/>
+      <c r="N7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="29"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="4">
         <v>285.608</v>
       </c>
@@ -1077,16 +1086,16 @@
       <c r="R7" s="1">
         <v>463</v>
       </c>
-      <c r="S7" s="30">
+      <c r="S7" s="29">
         <f t="shared" si="1"/>
         <v>11.634828156074061</v>
       </c>
-      <c r="T7" s="30"/>
+      <c r="T7" s="29"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="29" t="s">
+      <c r="V7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="W7" s="29"/>
+      <c r="W7" s="28"/>
       <c r="X7" s="4">
         <v>285.608</v>
       </c>
@@ -1096,18 +1105,18 @@
       <c r="Z7" s="1">
         <v>187</v>
       </c>
-      <c r="AA7" s="30">
+      <c r="AA7" s="29">
         <f t="shared" si="2"/>
         <v>5.7666451920114286</v>
       </c>
-      <c r="AB7" s="30"/>
-    </row>
-    <row r="8" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:28" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="25" t="s">
+      <c r="AB7" s="29"/>
+    </row>
+    <row r="8" spans="2:28" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="9" spans="2:28" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1117,16 +1126,16 @@
       <c r="I9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="17" t="s">
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="15">
         <v>211.33799999999999</v>
       </c>
@@ -1136,23 +1145,23 @@
       <c r="I10" s="15">
         <v>108</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="32">
         <f>(1/(G10))*H10</f>
         <v>11.157482326888681</v>
       </c>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="2:28" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="15">
         <v>211.33799999999999</v>
       </c>
@@ -1162,23 +1171,23 @@
       <c r="I11" s="15">
         <v>108</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="32">
         <f t="shared" ref="J11:J13" si="3">(1/(G11))*H11</f>
         <v>14.403467431318553</v>
       </c>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="15">
         <v>285.608</v>
       </c>
@@ -1188,23 +1197,23 @@
       <c r="I12" s="15">
         <v>463</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="32">
         <f t="shared" si="3"/>
         <v>9.4710232206380773</v>
       </c>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="16">
         <v>285.608</v>
       </c>
@@ -1214,13 +1223,13 @@
       <c r="I13" s="16">
         <v>463</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="36">
         <f t="shared" si="3"/>
         <v>11.634828156074061</v>
       </c>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -1228,11 +1237,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="25" t="s">
+    <row r="15" spans="2:28" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="11" t="s">
         <v>10</v>
       </c>
@@ -1242,16 +1251,16 @@
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="28"/>
-    </row>
-    <row r="16" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="17" t="s">
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="2:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="15">
         <v>211.33799999999999</v>
       </c>
@@ -1261,17 +1270,17 @@
       <c r="I16" s="15">
         <v>122</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="32">
         <f>(1/(G16))*H16</f>
         <v>5.0061986012927164</v>
       </c>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="17" t="s">
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="5:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E17" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="15">
         <v>211.33799999999999</v>
       </c>
@@ -1281,17 +1290,17 @@
       <c r="I17" s="15">
         <v>122</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="32">
         <f t="shared" ref="J17:J19" si="4">(1/(G17))*H17</f>
         <v>7.4856391183790905</v>
       </c>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="17" t="s">
+      <c r="K17" s="33"/>
+    </row>
+    <row r="18" spans="5:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="15">
         <v>285.608</v>
       </c>
@@ -1301,17 +1310,17 @@
       <c r="I18" s="15">
         <v>187</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="32">
         <f t="shared" si="4"/>
         <v>3.931962690120725</v>
       </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="21" t="s">
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="5:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="16">
         <v>285.608</v>
       </c>
@@ -1321,18 +1330,18 @@
       <c r="I19" s="16">
         <v>187</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="36">
         <f t="shared" si="4"/>
         <v>5.7666451920114286</v>
       </c>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="5:11" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="5:11" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="34" t="s">
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="5:11" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="21" spans="5:11" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E21" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="34"/>
+      <c r="F21" s="38"/>
       <c r="G21" s="11" t="s">
         <v>10</v>
       </c>
@@ -1342,16 +1351,16 @@
       <c r="I21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="35" t="s">
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="5:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="35"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="15">
         <v>183.16900000000001</v>
       </c>
@@ -1361,17 +1370,17 @@
       <c r="I22" s="15">
         <v>0</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="19">
         <f>(1/(G22))*H22</f>
         <v>0.3111880285419476</v>
       </c>
-      <c r="K22" s="32"/>
-    </row>
-    <row r="23" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="35" t="s">
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="5:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="35"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="15">
         <v>183.16900000000001</v>
       </c>
@@ -1381,17 +1390,17 @@
       <c r="I23" s="15">
         <v>108</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="19">
         <f t="shared" ref="J23:J24" si="5">(1/(G23))*H23</f>
         <v>12.873357391261621</v>
       </c>
-      <c r="K23" s="32"/>
-    </row>
-    <row r="24" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="35" t="s">
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="5:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="35"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="15">
         <v>183.16900000000001</v>
       </c>
@@ -1401,17 +1410,59 @@
       <c r="I24" s="15">
         <v>122</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="19">
         <f t="shared" si="5"/>
         <v>5.7760865648663255</v>
       </c>
-      <c r="K24" s="32"/>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="J27" s="37"/>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="J27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="E24:F24"/>
@@ -1422,54 +1473,12 @@
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="S7:T7"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
